--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-42920\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Case</t>
   </si>
@@ -50,60 +50,24 @@
     <t>customer_type_query</t>
   </si>
   <si>
-    <t>When I am verifying Change Login ID Scenario</t>
-  </si>
-  <si>
-    <t>1350361299161</t>
-  </si>
-  <si>
-    <t>4902860007216383</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
     <t>Select I.CUSTOMER_TYPE from dc_customer_info i where I.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>abbzabbz123</t>
-  </si>
-  <si>
-    <t>success_msg</t>
-  </si>
-  <si>
-    <t>You have successfully changed your login ID Login ID: ABBZABBZ123 A one time activation password has been sent to your mobile number and/or email address registered with HBL. Please use the activation password to login</t>
-  </si>
-  <si>
-    <t>activation_password</t>
-  </si>
-  <si>
-    <t>password_query</t>
-  </si>
-  <si>
     <t>pakistan2</t>
   </si>
   <si>
-    <t>Begin update dc_customer_info p set P.LOGIN_PASSWORD='$2a$10$fZ3EqVq2W9QWb2silU6sVuDUr.2XrXNSHjU98hOuQsCE/Dr1oN6cy' where P.CNIC='{customer_cnic}';COMMIT;END;</t>
-  </si>
-  <si>
     <t>new_password</t>
   </si>
   <si>
     <t>pakistan1</t>
   </si>
   <si>
-    <t>Your Login password and Transaction password have been changed.Please login with new password</t>
-  </si>
-  <si>
-    <t>feedback_option</t>
-  </si>
-  <si>
     <t>password_change_req_query</t>
   </si>
   <si>
-    <t>681168</t>
-  </si>
-  <si>
     <t>select IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
@@ -119,9 +83,6 @@
     <t>password_policy</t>
   </si>
   <si>
-    <t>password_policy1</t>
-  </si>
-  <si>
     <t>password_policy2</t>
   </si>
   <si>
@@ -131,13 +92,109 @@
     <t>Password Policy</t>
   </si>
   <si>
-    <t>As per HBL policy, your login password should contain the followings.</t>
-  </si>
-  <si>
     <t>Should be between 8 and 15 characters with at least 1 alphabet and 1 numeric digit</t>
   </si>
   <si>
-    <t>Special characters allowed are ! @ # $ . &amp;</t>
+    <t>When I am verifying Change Login ID Scenario for DEBIT Customer</t>
+  </si>
+  <si>
+    <t>4200004790677</t>
+  </si>
+  <si>
+    <t>5366190017355427</t>
+  </si>
+  <si>
+    <t>change_pass_policy1</t>
+  </si>
+  <si>
+    <t>Should be between 8 and 30 characters with at least 1 alphabet</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>change_pass_policy2</t>
+  </si>
+  <si>
+    <t>Select K.MOBILE_NO from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>mobile_no_query</t>
+  </si>
+  <si>
+    <t>OTP_message</t>
+  </si>
+  <si>
+    <t>A one time password has been sent to your mobile number xxxxxxx and/ or email address registered with HBL.</t>
+  </si>
+  <si>
+    <t>tran_pass</t>
+  </si>
+  <si>
+    <t>new_re_password</t>
+  </si>
+  <si>
+    <t>new_tran_re_pass</t>
+  </si>
+  <si>
+    <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>last_pass_change_query</t>
+  </si>
+  <si>
+    <t>last_tran_pass_change_query</t>
+  </si>
+  <si>
+    <t>select P.LAST_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>select P.LAST_TRANS_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>is_password_change_required_value</t>
+  </si>
+  <si>
+    <t>is_password_change_required_query</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_value</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_query</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>BEGIN Update DC_CUSTOMER_INFO D Set D.CUSTOMER_NAME = 'RYANDIAS' where D.CNIC ='{customer_cnic}';COMMIT;END;</t>
+  </si>
+  <si>
+    <t>name_update_query</t>
+  </si>
+  <si>
+    <t>Select K.CUSTOMER_INFO_ID from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>customer_info_id_query</t>
+  </si>
+  <si>
+    <t>Special characters allowed are ! @ # $ . &amp; *</t>
+  </si>
+  <si>
+    <t>abbzabbz12</t>
   </si>
 </sst>
 </file>
@@ -456,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -472,22 +529,33 @@
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="204.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="165.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="98.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="105.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="84.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="52.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="96" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="113.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,96 +581,162 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
+      <c r="W2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="92">
   <si>
     <t>Case</t>
   </si>
@@ -80,42 +80,6 @@
     <t>select CUSTOMER_NAME from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>password_policy</t>
-  </si>
-  <si>
-    <t>password_policy2</t>
-  </si>
-  <si>
-    <t>password_policy3</t>
-  </si>
-  <si>
-    <t>Password Policy</t>
-  </si>
-  <si>
-    <t>Should be between 8 and 15 characters with at least 1 alphabet and 1 numeric digit</t>
-  </si>
-  <si>
-    <t>When I am verifying Change Login ID Scenario for DEBIT Customer</t>
-  </si>
-  <si>
-    <t>4200004790677</t>
-  </si>
-  <si>
-    <t>5366190017355427</t>
-  </si>
-  <si>
-    <t>change_pass_policy1</t>
-  </si>
-  <si>
-    <t>Should be between 8 and 30 characters with at least 1 alphabet</t>
-  </si>
-  <si>
-    <t>Special characters are not allowed</t>
-  </si>
-  <si>
-    <t>change_pass_policy2</t>
-  </si>
-  <si>
     <t>Select K.MOBILE_NO from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
@@ -191,10 +155,151 @@
     <t>customer_info_id_query</t>
   </si>
   <si>
-    <t>Special characters allowed are ! @ # $ . &amp; *</t>
-  </si>
-  <si>
-    <t>abbzabbz12</t>
+    <t>change_pass_policy_query</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL L where L.APPLICATION_PARAMETER_ID = 563</t>
+  </si>
+  <si>
+    <t>new_password_policy_query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL L where L.APPLICATION_PARAMETER_ID = 1702</t>
+  </si>
+  <si>
+    <t>is_account_blocked_query</t>
+  </si>
+  <si>
+    <t>is_account_locked_query</t>
+  </si>
+  <si>
+    <t>is_tran_password_locked_query</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_TXN_PWD_LOCKED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_ACCOUNT_LOCKED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_ACCOUNT_BLOCKED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>To check that if Entered Debit Card Number is not tagged with Entered CNIC</t>
+  </si>
+  <si>
+    <t>4220169001163</t>
+  </si>
+  <si>
+    <t>2205430001256567</t>
+  </si>
+  <si>
+    <t>autom555</t>
+  </si>
+  <si>
+    <t>To check if user enters invalid Debit card number</t>
+  </si>
+  <si>
+    <t>5366190009708854</t>
+  </si>
+  <si>
+    <t>To check that Login ID field follows the Login ID Policy</t>
+  </si>
+  <si>
+    <t>5366190009706181</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>To verify that Debit card number field does not accept more or less than the 16 digits</t>
+  </si>
+  <si>
+    <t>536619006181</t>
+  </si>
+  <si>
+    <t>To verify that Debit card PIN field does not accept more or less than the 4 digits</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>To check that already existing Login ID can not be assigned to any other user</t>
+  </si>
+  <si>
+    <t>rajawaheed10</t>
+  </si>
+  <si>
+    <t>To check that Active Debit Card customer can successfully change Login ID</t>
+  </si>
+  <si>
+    <t>To check that Partial Active Debit card customer can successfully change Login ID</t>
+  </si>
+  <si>
+    <t>4200028347788</t>
+  </si>
+  <si>
+    <t>5366190000137766</t>
+  </si>
+  <si>
+    <t>loginid222</t>
+  </si>
+  <si>
+    <t>To check that Locked Debit card customer can successfully Change Login ID.</t>
+  </si>
+  <si>
+    <t>4430182101109</t>
+  </si>
+  <si>
+    <t>2205430001186269</t>
+  </si>
+  <si>
+    <t>dlocked555</t>
+  </si>
+  <si>
+    <t>To check if entered CNIC does not exist in System</t>
+  </si>
+  <si>
+    <t>4552636554244</t>
+  </si>
+  <si>
+    <t>To check that if Entered Credit Card Number is not tagged with Entered CNIC</t>
+  </si>
+  <si>
+    <t>3520227406461</t>
+  </si>
+  <si>
+    <t>4902880001916747</t>
+  </si>
+  <si>
+    <t>aliwaqarazeem@hotmail.com</t>
+  </si>
+  <si>
+    <t>cloginid666</t>
+  </si>
+  <si>
+    <t>To check if user enters Email which is not tagged with entered Credit card number</t>
+  </si>
+  <si>
+    <t>usman.safder@hbl.com</t>
+  </si>
+  <si>
+    <t>To check if Email address fields follows Email regex</t>
+  </si>
+  <si>
+    <t>usman@safder.hbl.com</t>
+  </si>
+  <si>
+    <t>User should not be able to enter Credit card number more or less than the 16 digits</t>
+  </si>
+  <si>
+    <t>4902880001916</t>
+  </si>
+  <si>
+    <t>To check that Active Credit Card only customer can successfully change Login ID</t>
+  </si>
+  <si>
+    <t>1730111412953</t>
   </si>
 </sst>
 </file>
@@ -230,9 +335,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,21 +621,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -536,27 +644,25 @@
     <col min="13" max="13" width="98.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="105.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="84.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="52.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="113.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="105.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="84.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="96" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="113.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="103.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -568,29 +674,29 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
@@ -602,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>19</v>
@@ -614,56 +720,58 @@
         <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -682,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>14</v>
@@ -691,52 +799,1316 @@
         <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="93">
   <si>
     <t>Case</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>1730111412953</t>
+  </si>
+  <si>
+    <t>BEGIN Update DC_CUSTOMER_INFO D Set D.CUSTOMER_NAME = 'CCAUTOMATIONUSER1' where D.CNIC ='{customer_cnic}';COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +657,7 @@
     <col min="23" max="23" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="113.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="124.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="103.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="96" style="1" bestFit="1" customWidth="1"/>
@@ -2093,7 +2096,7 @@
         <v>38</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>41</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChangeLoginID.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="114">
   <si>
     <t>Case</t>
   </si>
@@ -303,6 +303,69 @@
   </si>
   <si>
     <t>BEGIN Update DC_CUSTOMER_INFO D Set D.CUSTOMER_NAME = 'CCAUTOMATIONUSER1' where D.CNIC ='{customer_cnic}';COMMIT;END;</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>created_on_tran_query</t>
+  </si>
+  <si>
+    <t>updated_on_tran_query</t>
+  </si>
+  <si>
+    <t>cnic_tran_query</t>
+  </si>
+  <si>
+    <t>customer_type_tran_query</t>
+  </si>
+  <si>
+    <t>email_tran_query</t>
+  </si>
+  <si>
+    <t>mobile_no_tran_query</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>SELECT DT.MOBILE_NO FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.EMAIL_ADDRESS FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CUSTOMER_TYPE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CNIC FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.UPDATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
+  </si>
+  <si>
+    <t>new_login_id_tran_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.LOGIN_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_TYPE_ID = '248' order by 1 desc</t>
   </si>
 </sst>
 </file>
@@ -624,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,33 +701,45 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="98.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="102" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="105.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="101.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="84.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="124.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="103.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="82.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="82.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="99.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="99.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="91.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="102.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="98" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="99" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,8 +833,38 @@
       <c r="AE1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -849,8 +954,38 @@
       <c r="AE2" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -940,8 +1075,38 @@
       <c r="AE3" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -1031,8 +1196,38 @@
       <c r="AE4" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1122,8 +1317,38 @@
       <c r="AE5" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1213,8 +1438,38 @@
       <c r="AE6" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1304,8 +1559,38 @@
       <c r="AE7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -1395,8 +1680,38 @@
       <c r="AE8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -1486,8 +1801,38 @@
       <c r="AE9" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -1577,8 +1922,38 @@
       <c r="AE10" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1668,8 +2043,38 @@
       <c r="AE11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1757,8 +2162,38 @@
       <c r="AE12" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -1846,8 +2281,38 @@
       <c r="AE13" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
@@ -1935,8 +2400,38 @@
       <c r="AE14" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -2024,8 +2519,38 @@
       <c r="AE15" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AF15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
@@ -2112,6 +2637,36 @@
       </c>
       <c r="AE16" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
